--- a/data/trans_camb/P12A1_3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12A1_3_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,39</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-11,33</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-9,66</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,93</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,96</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,93</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,54</t>
+          <t>3,65</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,06</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,31</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-34,4; 22,85</t>
+          <t>-4,42; 3,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-41,68; 15,73</t>
+          <t>-4,34; 3,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-40,49; 17,67</t>
+          <t>-3,06; 7,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 32,39</t>
+          <t>-5,93; 6,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 37,33</t>
+          <t>-2,8; 7,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,39; 58,81</t>
+          <t>-1,36; 1,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-16,69; 20,99</t>
+          <t>-1,17; 2,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-22,15; 16,57</t>
+          <t>0,0; 5,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 29,56</t>
+          <t>-0,75; 10,44</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-5,98; 7,17</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,23; 2,06</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,24; 2,47</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-0,73; 4,86</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-1,9; 6,24</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-3,18; 5,54</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-20,24%</t>
+          <t>-3,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-42,51%</t>
+          <t>-15,73%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-36,24%</t>
+          <t>48,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>151,98%</t>
+          <t>12,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>218,25%</t>
+          <t>73,85%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>634,11%</t>
+          <t>58,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>101,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-9,0%</t>
+          <t>381,61%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>51,7%</t>
+          <t>132,1%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7,29%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4,17%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0,88%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>97,6%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>57,99%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>30,28%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-83,75; 260,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 581,01</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-95,29; 702,51</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-90,24; 237,6</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-74,39; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-71,94; 404,8</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-82,63; 266,9</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-49,6; 469,15</t>
+          <t>-43,99; 1179,46</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-74,99; 262,05</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-76,79; 326,35</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-78,07; 463,61</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-48,91; 707,9</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-44,39; 310,08</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-51,8; 226,55</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-8,43</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-10,73</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,06</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-13,26</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,96</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,41</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-10,85</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-6,04</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,73</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,93</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-40,34; 20,45</t>
+          <t>-3,87; 3,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-38,66; 17,05</t>
+          <t>-3,28; 3,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-28,22; 46,8</t>
+          <t>-4,95; 1,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-47,36; 27,61</t>
+          <t>0,12; 9,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-31,05; 40,07</t>
+          <t>-2,66; 7,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-37,99; 26,74</t>
+          <t>-4,39; 1,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-35,37; 13,3</t>
+          <t>-2,22; 4,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-28,56; 15,37</t>
+          <t>-2,55; 3,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-23,96; 25,91</t>
+          <t>-3,66; 3,33</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-4,49; 2,94</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,81; 1,43</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,94; 2,97</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-2,9; 1,84</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-0,64; 5,53</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-2,58; 4,26</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-27,57%</t>
+          <t>-8,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-35,08%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29,62%</t>
+          <t>-52,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-33,28%</t>
+          <t>276,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>57,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,08%</t>
+          <t>-48,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-31,63%</t>
+          <t>38,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-17,61%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>-3,63%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-22,32%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-26,56%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>18,79%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-21,24%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>88,83%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>15,74%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-84,67; 142,42</t>
+          <t>-80,91; 287,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-83,69; 140,09</t>
+          <t>-72,3; 371,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-70,11; 354,31</t>
+          <t>-100,0; 208,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-84,72; 217,61</t>
+          <t>-61,09; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,48; 230,83</t>
+          <t>-63,39; 615,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,44; 145,96</t>
+          <t>-100,0; 200,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-77,09; 59,57</t>
+          <t>-62,09; 422,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-61,6; 65,98</t>
+          <t>-69,17; 404,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-53,17; 118,82</t>
+          <t>-78,84; 280,81</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-81,99; 192,34</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-70,02; 105,55</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-49,98; 178,05</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-70,21; 127,02</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-28,51; 454,94</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-55,39; 241,54</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,56</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-11,1</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-12,26</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,96</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-5,73</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-7,99</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-5,69</t>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,78</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,36</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,73</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,36</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1,18</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0,81</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 20,02</t>
+          <t>-1,72; 2,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-25,23; 17,09</t>
+          <t>-2,19; 1,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-21,77; 15,78</t>
+          <t>-1,11; 3,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-29,55; 6,8</t>
+          <t>-2,06; 4,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-32,31; 6,26</t>
+          <t>-0,37; 5,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-28,42; 12,93</t>
+          <t>-3,93; 0,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-20,34; 8,76</t>
+          <t>-3,94; 0,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-23,19; 6,8</t>
+          <t>-4,57; 0,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-21,16; 7,72</t>
+          <t>-0,91; 3,63</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-3,52; 1,98</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,03; 1,11</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,39; 0,58</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-2,01; 1,32</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-0,71; 3,19</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-1,27; 3,07</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>41,2%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-19,51%</t>
+          <t>-10,92%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-20,15%</t>
+          <t>103,79%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-39,39%</t>
+          <t>51,27%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-43,5%</t>
+          <t>169,1%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-24,69%</t>
+          <t>-38,15%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-26,89%</t>
+          <t>-42,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-37,48%</t>
+          <t>-60,52%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-26,69%</t>
+          <t>85,87%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-25,52%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-16,99%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-33,9%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-17,01%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>66,14%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>38,04%</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1601,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-80,5; —</t>
+          <t>-87,85; 753,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1233,37 +1611,67 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-68,15; 830,35</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-67,38; 387,48</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-60,3; 1410,89</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-83,09; 66,54</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-81,97; 72,74</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-91,77; 25,37</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-77,27; 50,72</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-80,45; 47,56</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-73,73; 76,25</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-68,89; 78,97</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-75,89; 49,24</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-69,56; 63,49</t>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-82,52; 144,8</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-68,59; 93,45</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-74,9; 44,59</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-66,3; 112,63</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-37,18; 281,87</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-46,16; 246,09</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,07</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-8,65</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-22,36</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,42</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-24,71</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-4,23</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-24,79</t>
+          <t>-1,96</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,39</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-1,37</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,81; 31,97</t>
+          <t>-2,71; 3,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-29,17; 11,51</t>
+          <t>-4,03; 2,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-42,82; -4,62</t>
+          <t>-4,34; 1,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-25,06; 15,17</t>
+          <t>-1,67; 5,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-17,84; 18,77</t>
+          <t>-2,05; 6,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-41,78; -5,56</t>
+          <t>-5,4; 2,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 16,75</t>
+          <t>-4,03; 3,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-18,35; 9,85</t>
+          <t>-5,42; 2,54</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-37,12; -12,07</t>
+          <t>-6,02; 1,5</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-2,65; 3,5</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,13; 1,89</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-3,18; 2,06</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-4,14; 1,01</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-2,56; 2,46</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-1,34; 3,53</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>26,46%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-25,23%</t>
+          <t>-14,69%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-65,25%</t>
+          <t>-28,99%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-10,63%</t>
+          <t>54,36%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,54%</t>
+          <t>42,35%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-59,46%</t>
+          <t>-20,29%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>-0,45%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-10,98%</t>
+          <t>-20,58%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-64,35%</t>
+          <t>-35,37%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>17,2%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-6,91%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-6,03%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-24,18%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-3,12%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>30,6%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-32,33; 147,5</t>
+          <t>-46,37; 165,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-63,06; 55,89</t>
+          <t>-63,25; 100,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-87,65; -9,79</t>
+          <t>-74,34; 76,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-48,41; 49,71</t>
+          <t>-48,11; 369,43</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,92; 61,47</t>
+          <t>-48,55; 359,88</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-85,35; -17,35</t>
+          <t>-57,69; 56,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,39; 55,91</t>
+          <t>-44,21; 81,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-39,21; 33,35</t>
+          <t>-61,07; 56,94</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-80,27; -37,48</t>
+          <t>-73,52; 60,8</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-60,57; 259,99</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-44,74; 44,14</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-43,9; 47,17</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-57,45; 22,53</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-49,37; 79,64</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-35,16; 171,88</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>5,65</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>13,3</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>6,84</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-4,04</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-12,82</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-8,87</t>
+          <t>-0,54</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-2,43</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1,55</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>2,97</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>4,26</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-17,2; 25,32</t>
+          <t>-3,25; 7,18</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 33,32</t>
+          <t>0,34; 10,6</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-21,26; 19,09</t>
+          <t>0,84; 12,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-19,87; 15,84</t>
+          <t>-3,7; 12,28</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-21,19; 15,83</t>
+          <t>-5,21; 10,41</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-31,08; 5,23</t>
+          <t>-5,42; 7,77</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 15,7</t>
+          <t>-5,57; 7,1</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 18,32</t>
+          <t>-5,77; 8,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-23,12; 6,24</t>
+          <t>-8,22; 6,34</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-9,3; 4,9</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-2,35; 5,91</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,04; 7,19</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-0,41; 9,05</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-3,93; 6,43</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-5,35; 5,01</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>32,08%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>31,49%</t>
+          <t>77,7%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-2,4%</t>
+          <t>97,05%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-2,94%</t>
+          <t>28,05%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-5,34%</t>
+          <t>18,19%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-16,95%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-14,81%</t>
+          <t>-3,51%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-13,94%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>14,79%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>28,37%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>40,73%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>11,05%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>0,46%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-32,54; 84,68</t>
+          <t>-33,2; 156,41</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 113,67</t>
+          <t>-3,65; 220,32</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-39,49; 66,96</t>
+          <t>6,85; 267,3</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-23,38; 24,78</t>
+          <t>-22,56; 119,36</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-25,11; 24,73</t>
+          <t>-27,49; 89,52</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-36,9; 7,83</t>
+          <t>-32,53; 75,51</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 30,76</t>
+          <t>-33,79; 68,94</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-19,91; 35,78</t>
+          <t>-34,34; 84,93</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-33,76; 12,61</t>
+          <t>-40,44; 58,32</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-44,67; 35,44</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-19,51; 68,97</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-9,13; 85,99</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-3,83; 107,07</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-22,89; 52,32</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-28,48; 35,32</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>11,87</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>-3,34</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>14,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-8,51</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>5,12</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
           <t>-2,31</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>2,86</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-0,56</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>4,65</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>3,51</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 21,02</t>
+          <t>-12,37; 6,74</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 29,3</t>
+          <t>-8,06; 11,53</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 23,41</t>
+          <t>-14,34; 5,21</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 15,48</t>
+          <t>3,23; 24,4</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 12,96</t>
+          <t>-6,62; 14,71</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-27,31; 7,36</t>
+          <t>-8,33; 9,09</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 14,14</t>
+          <t>-8,51; 7,65</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 14,49</t>
+          <t>-7,84; 11,81</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-14,42; 8,6</t>
+          <t>-12,91; 6,87</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-7,22; 12,36</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-7,22; 5,92</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-5,92; 6,94</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-7,92; 6,25</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-3,59; 11,61</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-3,61; 10,9</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>-12,65%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>-16,79%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>84,66%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-9,71%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>-2,15%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-2,68%</t>
+          <t>-8,87%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>13,71%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-2,51%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>2,29%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-1,95%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>21,19%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>15,23%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-15,52; 29,29</t>
+          <t>-49,19; 45,6</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 43,45</t>
+          <t>-33,35; 75,66</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 33,45</t>
+          <t>-55,59; 36,06</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 19,48</t>
+          <t>13,78; 213,65</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 15,95</t>
+          <t>-21,33; 75,13</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-29,83; 8,67</t>
+          <t>-29,49; 43,97</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 18,03</t>
+          <t>-30,04; 38,56</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 18,24</t>
+          <t>-28,49; 60,48</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-15,71; 10,65</t>
+          <t>-41,0; 32,27</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-28,49; 82,13</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-27,67; 30,51</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-23,67; 37,54</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-31,31; 31,33</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-14,07; 64,54</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-14,21; 57,97</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-7,81</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-8,49</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-8,91</t>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>1,95</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 9,21</t>
+          <t>-2,14; 1,96</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-15,17; 9,42</t>
+          <t>-1,43; 2,78</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-19,78; 3,59</t>
+          <t>-1,71; 2,81</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 10,38</t>
+          <t>1,31; 6,46</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 8,75</t>
+          <t>-0,33; 5,11</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-18,77; 1,27</t>
+          <t>-3,17; 1,78</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 6,57</t>
+          <t>-2,7; 1,97</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 5,83</t>
+          <t>-2,41; 3,03</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-16,85; -0,81</t>
+          <t>-2,74; 2,77</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-3,01; 2,99</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-1,88; 1,44</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-1,28; 1,76</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-1,37; 2,14</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 3,95</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-0,8; 3,09</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-5,91%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-5,03%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-17,2%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>60,03%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-0,33%</t>
+          <t>29,24%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-14,83%</t>
+          <t>-5,8%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-2,16%</t>
+          <t>-2,79%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-3,2%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-17,2%</t>
+          <t>0,46%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>0,32%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-3,34%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>3,34%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>5,62%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>24,07%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>13,53%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-30,33; 24,08</t>
+          <t>-29,94; 38,99</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-28,52; 23,8</t>
+          <t>-20,16; 52,68</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-37,29; 9,28</t>
+          <t>-23,79; 53,68</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-15,19; 19,78</t>
+          <t>15,04; 116,19</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 16,28</t>
+          <t>-4,23; 75,14</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-30,42; 2,37</t>
+          <t>-29,31; 22,04</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-16,04; 13,62</t>
+          <t>-25,48; 25,83</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-17,21; 12,63</t>
+          <t>-23,2; 39,73</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-30,05; -1,23</t>
+          <t>-24,63; 34,44</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-27,35; 37,0</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-21,46; 21,55</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-15,27; 26,13</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-15,95; 30,28</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>0,78; 53,95</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-8,05; 40,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
